--- a/results/metric_df/RCA-I_metrics.xlsx
+++ b/results/metric_df/RCA-I_metrics.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,1537 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>glycan</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>binding_score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SASA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>flexibility</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>conformation</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>monosaccharides</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>motifs</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)Gal(b1-3)GlcNAc(b1-3)[Gal(b1-4)GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.581709237067038</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.488746614678542</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.45695</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.6406166288019454</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.922537504205238</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.58035196480352</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4425</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.315254430745186</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.315462523559917</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7807833333333334</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-1)']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.4202930260521113</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.095696026530681</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.35245</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4615</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.545</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.0371149728334496</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.839862977009192</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.81119986998699</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4305</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.2112171217170984</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.828098178284811</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24.84926826015935</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.45175</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.8825</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7620879078447512</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.083593343800548</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26.18351</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.43875</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8.085000000000001</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.8907921203858248</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.062780570779721</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21.38838</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4735</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11.705</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.4251214853840404</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.015847993161443</v>
+      </c>
+      <c r="D10" t="n">
+        <v>17.11223979540811</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.45525</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.3425</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-3)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-3)[GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.6406166288019454</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.072921512690588</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.6333</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.735</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-3)GlcNAc(b1-3)[Gal(b1-4)GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.089329190719579</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.516695678759826</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.80108333333333</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5.775</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)Glc(b1-6)[Gal(b1-4)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.992139926632126</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.431690046963775</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.623493206234931</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7.275</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-1)']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.4040879457180625</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.597512620302648</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9847586669904439</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8.209999999999999</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.178629671220402</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.155171723489191</v>
+      </c>
+      <c r="D15" t="n">
+        <v>30.0175375</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.44975</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.555</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.277160460608995</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.224273281242684</v>
+      </c>
+      <c r="D16" t="n">
+        <v>31.606575</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)][Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3.397985717653073</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.221077482372755</v>
+      </c>
+      <c r="D17" t="n">
+        <v>28.0941875</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7.925</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.943648779100547</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.19766197407428</v>
+      </c>
+      <c r="D18" t="n">
+        <v>18.7132125</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7.955</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.760645713081481</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.003032535825799</v>
+      </c>
+      <c r="D19" t="n">
+        <v>29.05757242390905</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10.695</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.553015700604782</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.476045733589508</v>
+      </c>
+      <c r="D20" t="n">
+        <v>16.46180618061806</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8144849332995333</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.575385896130309</v>
+      </c>
+      <c r="D21" t="n">
+        <v>12.52361430523614</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7.595000000000001</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)][GlcNAc(b1-4)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.167828755030991</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.261075238839514</v>
+      </c>
+      <c r="D22" t="n">
+        <v>15.20688333333334</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="F22" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7482027585013185</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.047297700897916</v>
+      </c>
+      <c r="D23" t="n">
+        <v>27.53785714285714</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="F23" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.376683511318898</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.90563373219762</v>
+      </c>
+      <c r="D24" t="n">
+        <v>18.58628333333333</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)][GlcNAc(b1-4)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.049935738320723</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.235129157743496</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16.40596428571428</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="F25" t="n">
+        <v>13.735</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3.683277064991806</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.244920453422627</v>
+      </c>
+      <c r="D26" t="n">
+        <v>44.48635178571428</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.42025</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8.52375</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-4)', 'Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2.190509488297101</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.194040328027896</v>
+      </c>
+      <c r="D27" t="n">
+        <v>33.14937916666667</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4545</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7.45125</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-4)', 'Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-3)Fuc</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.1935682643180331</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.658802693669422</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.152075</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.307551261245176</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.669142786290044</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.817538246175381</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.4565</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.226286526217727</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.63639127321597</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.35031503150315</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9479407699776892</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.65306457390486</v>
+      </c>
+      <c r="D31" t="n">
+        <v>8.650625</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.4185</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.045055397594909</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.626073631843238</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5.137133333333335</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.4355</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9.370000000000001</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2.221113880124375</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.3684476110844</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3.6741</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9659402329096358</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.159511275528813</v>
+      </c>
+      <c r="D34" t="n">
+        <v>36.08047857142857</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.4775</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5.715</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8416023783768352</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.537619962282618</v>
+      </c>
+      <c r="D35" t="n">
+        <v>25.0045375</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F35" t="n">
+        <v>8.870000000000001</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1129159267135876</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.532133598783071</v>
+      </c>
+      <c r="D36" t="n">
+        <v>22.83945</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.4245</v>
+      </c>
+      <c r="F36" t="n">
+        <v>12.695</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results/metric_df/RCA-I_metrics.xlsx
+++ b/results/metric_df/RCA-I_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>sum_SASA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max_SASA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>flexibility</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>conformation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>monosaccharides</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>motifs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -498,30 +508,36 @@
         <v>2.488746614678542</v>
       </c>
       <c r="D2" t="n">
+        <v>4.977493229357083</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.601404570752231</v>
+      </c>
+      <c r="F2" t="n">
         <v>13.45695</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>0.4555</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>3.73</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-6)']</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -540,30 +556,36 @@
         <v>1.922537504205238</v>
       </c>
       <c r="D3" t="n">
+        <v>3.845075008410476</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.142925362593515</v>
+      </c>
+      <c r="F3" t="n">
         <v>19.58035196480352</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.4425</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>7</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-6)']</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -582,30 +604,36 @@
         <v>2.315462523559917</v>
       </c>
       <c r="D4" t="n">
+        <v>4.630925047119835</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.459217179038713</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.7807833333333334</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.419</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>7.37</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-1)']</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -624,30 +652,36 @@
         <v>2.095696026530681</v>
       </c>
       <c r="D5" t="n">
+        <v>4.191392053061362</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.203808152214962</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.35245</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>0.4615</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>8.545</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -666,30 +700,36 @@
         <v>1.839862977009192</v>
       </c>
       <c r="D6" t="n">
+        <v>7.359451908036769</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.112906746388721</v>
+      </c>
+      <c r="F6" t="n">
         <v>38.81119986998699</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>0.4305</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>9.94</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -708,30 +748,36 @@
         <v>1.828098178284811</v>
       </c>
       <c r="D7" t="n">
+        <v>7.312392713139245</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.160388455580649</v>
+      </c>
+      <c r="F7" t="n">
         <v>24.84926826015935</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>0.45175</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>3.8825</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -750,30 +796,36 @@
         <v>2.083593343800548</v>
       </c>
       <c r="D8" t="n">
+        <v>8.334373375202192</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.339847342467588</v>
+      </c>
+      <c r="F8" t="n">
         <v>26.18351</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>0.43875</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>8.085000000000001</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -792,30 +844,36 @@
         <v>2.062780570779721</v>
       </c>
       <c r="D9" t="n">
+        <v>4.125561141559442</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.195876023282117</v>
+      </c>
+      <c r="F9" t="n">
         <v>21.38838</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>0.4735</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>11.705</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -834,30 +892,36 @@
         <v>2.015847993161443</v>
       </c>
       <c r="D10" t="n">
+        <v>8.063391972645771</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.122725684698163</v>
+      </c>
+      <c r="F10" t="n">
         <v>17.11223979540811</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>0.45525</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>5.3425</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-3)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -876,30 +940,36 @@
         <v>2.072921512690588</v>
       </c>
       <c r="D11" t="n">
+        <v>4.145843025381176</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.218834249149554</v>
+      </c>
+      <c r="F11" t="n">
         <v>6.6333</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>0.487</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>10.735</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -918,30 +988,36 @@
         <v>2.516695678759826</v>
       </c>
       <c r="D12" t="n">
+        <v>5.033391357519653</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.570599006125494</v>
+      </c>
+      <c r="F12" t="n">
         <v>14.80108333333333</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>0.435</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>5.775</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-6)']</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -960,30 +1036,36 @@
         <v>2.431690046963775</v>
       </c>
       <c r="D13" t="n">
+        <v>4.86338009392755</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.493045861463653</v>
+      </c>
+      <c r="F13" t="n">
         <v>2.623493206234931</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>0.444</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>7.275</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-1)']</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1002,30 +1084,36 @@
         <v>2.597512620302648</v>
       </c>
       <c r="D14" t="n">
+        <v>5.195025240605295</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.649503772605084</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.9847586669904439</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>0.404</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>8.209999999999999</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1044,30 +1132,36 @@
         <v>2.155171723489191</v>
       </c>
       <c r="D15" t="n">
+        <v>8.620686893956766</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.66658931256329</v>
+      </c>
+      <c r="F15" t="n">
         <v>30.0175375</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>0.44975</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>3.555</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1086,30 +1180,36 @@
         <v>2.224273281242684</v>
       </c>
       <c r="D16" t="n">
+        <v>8.897093124970736</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.596661214730085</v>
+      </c>
+      <c r="F16" t="n">
         <v>31.606575</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>0.457</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>10.39</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1128,30 +1228,36 @@
         <v>2.221077482372755</v>
       </c>
       <c r="D17" t="n">
+        <v>8.884309929491019</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.609213304740784</v>
+      </c>
+      <c r="F17" t="n">
         <v>28.0941875</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>0.4095</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>7.925</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1170,30 +1276,36 @@
         <v>2.19766197407428</v>
       </c>
       <c r="D18" t="n">
+        <v>8.79064789629712</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.601224001815298</v>
+      </c>
+      <c r="F18" t="n">
         <v>18.7132125</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>0.441</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>7.955</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1212,30 +1324,36 @@
         <v>2.003032535825799</v>
       </c>
       <c r="D19" t="n">
+        <v>12.0181952149548</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.231220642295418</v>
+      </c>
+      <c r="F19" t="n">
         <v>29.05757242390905</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>0.427</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>10.695</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1254,30 +1372,36 @@
         <v>2.476045733589508</v>
       </c>
       <c r="D20" t="n">
+        <v>4.952091467179017</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.544812406196563</v>
+      </c>
+      <c r="F20" t="n">
         <v>16.46180618061806</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>0.4375</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>7.33</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1296,30 +1420,36 @@
         <v>2.575385896130309</v>
       </c>
       <c r="D21" t="n">
+        <v>5.150771792260618</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.666389487927197</v>
+      </c>
+      <c r="F21" t="n">
         <v>12.52361430523614</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>0.42</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>7.595000000000001</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1338,30 +1468,36 @@
         <v>2.261075238839514</v>
       </c>
       <c r="D22" t="n">
+        <v>4.522150477679028</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.54389855019874</v>
+      </c>
+      <c r="F22" t="n">
         <v>15.20688333333334</v>
       </c>
-      <c r="E22" t="n">
+      <c r="G22" t="n">
         <v>0.421</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>11.9</v>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1380,30 +1516,36 @@
         <v>2.047297700897916</v>
       </c>
       <c r="D23" t="n">
+        <v>4.094595401795831</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.199699706090952</v>
+      </c>
+      <c r="F23" t="n">
         <v>27.53785714285714</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>0.479</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>14.95</v>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1422,30 +1564,36 @@
         <v>1.90563373219762</v>
       </c>
       <c r="D24" t="n">
+        <v>3.81126746439524</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.297714337469579</v>
+      </c>
+      <c r="F24" t="n">
         <v>18.58628333333333</v>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
         <v>0.473</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>8.470000000000001</v>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1464,30 +1612,36 @@
         <v>2.235129157743496</v>
       </c>
       <c r="D25" t="n">
+        <v>4.470258315486991</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.433726377768361</v>
+      </c>
+      <c r="F25" t="n">
         <v>16.40596428571428</v>
       </c>
-      <c r="E25" t="n">
+      <c r="G25" t="n">
         <v>0.404</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
         <v>13.735</v>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1506,30 +1660,36 @@
         <v>2.244920453422627</v>
       </c>
       <c r="D26" t="n">
+        <v>17.95936362738102</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.568174557198956</v>
+      </c>
+      <c r="F26" t="n">
         <v>44.48635178571428</v>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
         <v>0.42025</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>8.52375</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-4)', 'Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1548,30 +1708,36 @@
         <v>2.194040328027896</v>
       </c>
       <c r="D27" t="n">
+        <v>17.55232262422317</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.619627088841423</v>
+      </c>
+      <c r="F27" t="n">
         <v>33.14937916666667</v>
       </c>
-      <c r="E27" t="n">
+      <c r="G27" t="n">
         <v>0.4545</v>
       </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
         <v>7.45125</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-4)', 'Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1590,30 +1756,36 @@
         <v>2.658802693669422</v>
       </c>
       <c r="D28" t="n">
+        <v>5.317605387338844</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.67240639423884</v>
+      </c>
+      <c r="F28" t="n">
         <v>1.152075</v>
       </c>
-      <c r="E28" t="n">
+      <c r="G28" t="n">
         <v>0.418</v>
       </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
         <v>9.539999999999999</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1632,30 +1804,36 @@
         <v>2.669142786290044</v>
       </c>
       <c r="D29" t="n">
+        <v>5.338285572580087</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.68842592003154</v>
+      </c>
+      <c r="F29" t="n">
         <v>1.817538246175381</v>
       </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
         <v>0.4565</v>
       </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
         <v>3.925</v>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1674,30 +1852,36 @@
         <v>2.63639127321597</v>
       </c>
       <c r="D30" t="n">
+        <v>5.27278254643194</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.693433712714632</v>
+      </c>
+      <c r="F30" t="n">
         <v>4.35031503150315</v>
       </c>
-      <c r="E30" t="n">
+      <c r="G30" t="n">
         <v>0.415</v>
       </c>
-      <c r="F30" t="n">
+      <c r="H30" t="n">
         <v>6.54</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1716,30 +1900,36 @@
         <v>2.65306457390486</v>
       </c>
       <c r="D31" t="n">
+        <v>5.30612914780972</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.674553781647119</v>
+      </c>
+      <c r="F31" t="n">
         <v>8.650625</v>
       </c>
-      <c r="E31" t="n">
+      <c r="G31" t="n">
         <v>0.4185</v>
       </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
         <v>8.49</v>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1758,30 +1948,36 @@
         <v>2.626073631843238</v>
       </c>
       <c r="D32" t="n">
+        <v>5.252147263686476</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.634992378833529</v>
+      </c>
+      <c r="F32" t="n">
         <v>5.137133333333335</v>
       </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
         <v>0.4355</v>
       </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
         <v>9.370000000000001</v>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1800,30 +1996,36 @@
         <v>2.3684476110844</v>
       </c>
       <c r="D33" t="n">
+        <v>4.736895222168799</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.470397724041343</v>
+      </c>
+      <c r="F33" t="n">
         <v>3.6741</v>
       </c>
-      <c r="E33" t="n">
+      <c r="G33" t="n">
         <v>0.453</v>
       </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
         <v>4.105</v>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-6)']</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1842,30 +2044,36 @@
         <v>2.159511275528813</v>
       </c>
       <c r="D34" t="n">
+        <v>4.319022551057627</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.425419112039043</v>
+      </c>
+      <c r="F34" t="n">
         <v>36.08047857142857</v>
       </c>
-      <c r="E34" t="n">
+      <c r="G34" t="n">
         <v>0.4775</v>
       </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
         <v>5.715</v>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1884,30 +2092,36 @@
         <v>2.537619962282618</v>
       </c>
       <c r="D35" t="n">
+        <v>5.075239924565237</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.657031866131677</v>
+      </c>
+      <c r="F35" t="n">
         <v>25.0045375</v>
       </c>
-      <c r="E35" t="n">
+      <c r="G35" t="n">
         <v>0.411</v>
       </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
         <v>8.870000000000001</v>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1926,30 +2140,36 @@
         <v>2.532133598783071</v>
       </c>
       <c r="D36" t="n">
+        <v>5.064267197566142</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.629824313804915</v>
+      </c>
+      <c r="F36" t="n">
         <v>22.83945</v>
       </c>
-      <c r="E36" t="n">
+      <c r="G36" t="n">
         <v>0.4245</v>
       </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
         <v>12.695</v>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>N</t>
         </is>
